--- a/GMS.Web.Admin/Template.xlsx
+++ b/GMS.Web.Admin/Template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,13 +9,226 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$1</definedName>
+  </definedNames>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：跟标市场
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：二终端
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：三终端</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>A:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">配送型
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>B:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">代理型
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>C</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：自由人</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>分管领导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办事处</t>
+  </si>
+  <si>
+    <t>省份</t>
+  </si>
+  <si>
+    <t>地市</t>
+  </si>
+  <si>
+    <t>公司名称</t>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>联系人</t>
+  </si>
+  <si>
+    <t>联系方式</t>
+  </si>
+  <si>
+    <t>渠道1/2/3</t>
+  </si>
+  <si>
+    <t>商业类型(A/B/C)</t>
+  </si>
+  <si>
+    <t>连锁门店数量</t>
+  </si>
+  <si>
+    <t>连锁合作方式</t>
+  </si>
+  <si>
+    <t>业务员</t>
+  </si>
+  <si>
+    <t>业务员类型</t>
+  </si>
+  <si>
+    <t>是否合作</t>
+  </si>
+  <si>
+    <t>合作品种</t>
+  </si>
+  <si>
+    <t>当月预计回款金额</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="[$-804]yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +236,74 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,23 +311,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 8" xfId="1"/>
+    <cellStyle name="计算" xfId="2" builtinId="22"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +414,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +449,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +657,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Q1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>